--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H2">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I2">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J2">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N2">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O2">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P2">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q2">
-        <v>10.63181639873956</v>
+        <v>33.10654924588</v>
       </c>
       <c r="R2">
-        <v>95.68634758865601</v>
+        <v>297.95894321292</v>
       </c>
       <c r="S2">
-        <v>0.3031338389232427</v>
+        <v>0.3545280412567069</v>
       </c>
       <c r="T2">
-        <v>0.3031338389232427</v>
+        <v>0.3545280412567069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H3">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I3">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J3">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q3">
-        <v>2.131274830764444</v>
+        <v>7.955399314720001</v>
       </c>
       <c r="R3">
-        <v>19.18147347688</v>
+        <v>71.59859383248001</v>
       </c>
       <c r="S3">
-        <v>0.06076680569151887</v>
+        <v>0.08519196958630838</v>
       </c>
       <c r="T3">
-        <v>0.06076680569151887</v>
+        <v>0.0851919695863084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H4">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I4">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J4">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N4">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O4">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P4">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q4">
-        <v>0.1074438742226666</v>
+        <v>0.323485632888</v>
       </c>
       <c r="R4">
-        <v>0.9669948680039999</v>
+        <v>2.911370695992</v>
       </c>
       <c r="S4">
-        <v>0.003063434585435869</v>
+        <v>0.003464109984725784</v>
       </c>
       <c r="T4">
-        <v>0.003063434585435869</v>
+        <v>0.003464109984725785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H5">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I5">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J5">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N5">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q5">
-        <v>1.168785133384</v>
+        <v>3.167518317656</v>
       </c>
       <c r="R5">
-        <v>10.519066200456</v>
+        <v>28.507664858904</v>
       </c>
       <c r="S5">
-        <v>0.03332434563120462</v>
+        <v>0.03391999741389753</v>
       </c>
       <c r="T5">
-        <v>0.03332434563120462</v>
+        <v>0.03391999741389754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2053186666666666</v>
+        <v>0.7663920000000001</v>
       </c>
       <c r="H6">
-        <v>0.6159559999999999</v>
+        <v>2.299176</v>
       </c>
       <c r="I6">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346924</v>
       </c>
       <c r="J6">
-        <v>0.420847658662702</v>
+        <v>0.4782815633346925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N6">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O6">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P6">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q6">
-        <v>0.7210742296853333</v>
+        <v>0.109952216528</v>
       </c>
       <c r="R6">
-        <v>6.489668067167999</v>
+        <v>0.9895699487520001</v>
       </c>
       <c r="S6">
-        <v>0.02055923383129989</v>
+        <v>0.001177445093053793</v>
       </c>
       <c r="T6">
-        <v>0.02055923383129988</v>
+        <v>0.001177445093053793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H7">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I7">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J7">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N7">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O7">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P7">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q7">
-        <v>14.63104577928356</v>
+        <v>36.11324048436445</v>
       </c>
       <c r="R7">
-        <v>131.679412013552</v>
+        <v>325.01916435928</v>
       </c>
       <c r="S7">
-        <v>0.4171596750919946</v>
+        <v>0.3867257900322379</v>
       </c>
       <c r="T7">
-        <v>0.4171596750919945</v>
+        <v>0.3867257900322379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H8">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I8">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J8">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q8">
-        <v>2.932968219884445</v>
+        <v>8.677897731591111</v>
       </c>
       <c r="R8">
-        <v>26.39671397896</v>
+        <v>78.10107958432</v>
       </c>
       <c r="S8">
-        <v>0.0836246491275795</v>
+        <v>0.09292898701576044</v>
       </c>
       <c r="T8">
-        <v>0.0836246491275795</v>
+        <v>0.09292898701576045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8359946666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.507984</v>
+      </c>
+      <c r="I9">
+        <v>0.5217184366653075</v>
+      </c>
+      <c r="J9">
+        <v>0.5217184366653076</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.2825506666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.8476520000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.579152341337298</v>
-      </c>
-      <c r="J9">
-        <v>0.579152341337298</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N9">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O9">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P9">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q9">
-        <v>0.1478596115186667</v>
+        <v>0.3528641528586667</v>
       </c>
       <c r="R9">
-        <v>1.330736503668</v>
+        <v>3.175777375728</v>
       </c>
       <c r="S9">
-        <v>0.004215766147604514</v>
+        <v>0.003778715685938141</v>
       </c>
       <c r="T9">
-        <v>0.004215766147604513</v>
+        <v>0.003778715685938142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H10">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I10">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J10">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N10">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q10">
-        <v>1.608431537128</v>
+        <v>3.455187971859555</v>
       </c>
       <c r="R10">
-        <v>14.475883834152</v>
+        <v>31.096691746736</v>
       </c>
       <c r="S10">
-        <v>0.04585952279542997</v>
+        <v>0.03700056489546532</v>
       </c>
       <c r="T10">
-        <v>0.04585952279542997</v>
+        <v>0.03700056489546533</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2825506666666667</v>
+        <v>0.8359946666666667</v>
       </c>
       <c r="H11">
-        <v>0.8476520000000001</v>
+        <v>2.507984</v>
       </c>
       <c r="I11">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653075</v>
       </c>
       <c r="J11">
-        <v>0.579152341337298</v>
+        <v>0.5217184366653076</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N11">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O11">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P11">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q11">
-        <v>0.9923111601173334</v>
+        <v>0.1199379255075556</v>
       </c>
       <c r="R11">
-        <v>8.930800441056</v>
+        <v>1.079441329568</v>
       </c>
       <c r="S11">
-        <v>0.02829272817468945</v>
+        <v>0.001284379035905656</v>
       </c>
       <c r="T11">
-        <v>0.02829272817468944</v>
+        <v>0.001284379035905657</v>
       </c>
     </row>
   </sheetData>
